--- a/mcmaster_excel/Ultra_Vibration-Resistant_Thread-Locking_Rounded_Head_Screws.xlsx
+++ b/mcmaster_excel/Ultra_Vibration-Resistant_Thread-Locking_Rounded_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,117 +434,185 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Begins toHarden, hrs.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Reaches FullStrength, hrs.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Thread LockerTemperature Range, °F</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Begins toHarden, hrs.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Reaches FullStrength, hrs.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Thread LockerTemperature Range, °F</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.213"</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.059"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-65° to 300°</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>95894A111</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>$13.47</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>4-40</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -594,21 +662,29 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>95894A111</t>
+          <t>95894A112</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>$13.47</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -658,21 +734,29 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>95894A112</t>
+          <t>95894A113</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>14.57</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4-40</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -682,17 +766,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -722,41 +806,101 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>95894A113</t>
+          <t>95894A114</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>13.78</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.262"</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.073"</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-65° to 300°</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>95894A115</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>6-32</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -806,21 +950,29 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>95894A114</t>
+          <t>95894A116</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>6-32</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -830,17 +982,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -870,21 +1022,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>95894A115</t>
+          <t>95894A117</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -894,17 +1054,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -934,36 +1094,96 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>95894A116</t>
+          <t>95894A118</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>8-32</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.312"</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.087"</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>T15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-65° to 300°</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>95894A119</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>8-32</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -978,17 +1198,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1018,16 +1238,24 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>95894A117</t>
+          <t>95894A121</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>12.08</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1042,17 +1270,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1082,16 +1310,24 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>95894A118</t>
+          <t>95894A122</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12.39</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1106,17 +1342,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1146,41 +1382,101 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>95894A119</t>
+          <t>95894A123</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>17.13</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>10-32</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10-32</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.437"</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>T27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-65° to 300°</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>95894A124</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16.62</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1190,17 +1486,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1230,21 +1526,29 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>95894A121</t>
+          <t>95894A125</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>11.93</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1254,17 +1558,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1294,284 +1598,24 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>95894A122</t>
+          <t>95894A126</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>12.70</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0.361"</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.101"</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>T25</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-65° to 300°</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>95894A123</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1/2"</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0.437"</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.132"</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>T27</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-65° to 300°</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>95894A124</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>16.62</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.437"</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.132"</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>T27</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-65° to 300°</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>95894A125</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>13.62</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.437"</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.132"</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>T27</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-65° to 300°</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>95894A126</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>15.16</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
